--- a/med/leadership/files/honors ambassador.xlsx
+++ b/med/leadership/files/honors ambassador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbisc\Desktop\REPOs\personal\pbischoff3.github.io\med\leadership\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7D4185-DC24-4AE1-A089-E13C22CEA0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE9AD54-D476-4AAE-B67D-B4BB0B12493B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>total now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sept </t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov (to 14)</t>
   </si>
 </sst>
 </file>
@@ -366,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,7 +409,7 @@
       </c>
       <c r="G3">
         <f>G2+(SUM(C3:C150))</f>
-        <v>61</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -433,6 +442,30 @@
       </c>
       <c r="C7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
